--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Mtwara.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Mtwara.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Tanzania application/Input sheets Tanzania/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="460" windowWidth="16900" windowHeight="14260" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="840" yWindow="520" windowWidth="23580" windowHeight="13660" tabRatio="500" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -38,13 +33,13 @@
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1311,7 +1306,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1322,6 +1317,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1435,7 +1434,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="62">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1465,6 +1464,8 @@
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1493,6 +1494,8 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2914,12 +2917,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>223120.83051140129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>49393.276530642324</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>58075.946423114336</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2979,6 +2982,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2990,12 +2998,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3061,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3227,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3247,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3267,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3290,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3330,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3350,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3373,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3393,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3413,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3433,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3496,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3559,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3579,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3601,6 +3609,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3612,13 +3625,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3635,7 +3648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3654,7 +3667,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3686,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3692,7 +3705,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3711,7 +3724,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3730,7 +3743,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3749,7 +3762,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3768,7 +3781,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3787,113 +3800,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3905,9 +3923,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3921,7 +3939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3937,6 +3955,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3946,12 +3969,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3971,7 +3994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3991,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4011,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4031,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4053,6 +4076,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4064,9 +4092,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4086,7 +4114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4108,6 +4136,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4119,9 +4152,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4135,7 +4168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4151,6 +4184,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4162,12 +4200,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4187,7 +4225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4207,7 +4245,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4215,7 +4253,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4223,7 +4261,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4234,6 +4272,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4245,12 +4288,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
@@ -4270,7 +4313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4290,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4310,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4330,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4352,6 +4395,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4363,13 +4411,13 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4389,7 +4437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -4409,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -4429,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4439,6 +4487,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4448,12 +4501,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4470,7 +4523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4487,14 +4540,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4503,6 +4556,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4514,13 +4572,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4528,7 +4586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4536,7 +4594,7 @@
         <v>50347.764999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4544,7 +4602,7 @@
         <v>51302.224999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4552,7 +4610,7 @@
         <v>52495.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4560,7 +4618,7 @@
         <v>53449.760000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4568,7 +4626,7 @@
         <v>54404.22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4576,7 +4634,7 @@
         <v>55597.294999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4584,7 +4642,7 @@
         <v>56790.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4592,7 +4650,7 @@
         <v>57744.83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4600,7 +4658,7 @@
         <v>59176.520000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4608,7 +4666,7 @@
         <v>60369.595000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4616,7 +4674,7 @@
         <v>61562.670000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4624,7 +4682,7 @@
         <v>62755.745000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4632,7 +4690,7 @@
         <v>64187.435000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4642,6 +4700,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4649,11 +4712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4661,7 +4724,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4675,7 +4738,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4692,7 +4755,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -4709,7 +4772,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -4726,7 +4789,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4743,7 +4806,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -4757,12 +4820,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="20">
-        <v>89.4</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="C7" s="20">
         <v>0.95</v>
@@ -4774,7 +4837,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -4791,77 +4854,77 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
@@ -4869,6 +4932,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4880,7 +4948,7 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4890,7 +4958,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4915,7 +4983,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4938,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -4961,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -4986,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -5009,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5033,7 +5101,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5056,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -5079,72 +5147,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
@@ -5152,6 +5220,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5163,12 +5236,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5188,7 +5261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5208,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5227,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -5247,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5264,14 +5337,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5281,6 +5354,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5292,12 +5370,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5320,7 +5398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5343,7 +5421,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5363,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -5386,7 +5464,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5410,6 +5488,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5421,12 +5504,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5449,7 +5532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5472,7 +5555,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5492,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -5518,7 +5601,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5542,6 +5625,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5553,12 +5641,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5581,7 +5669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5604,7 +5692,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5624,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -5650,7 +5738,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5674,6 +5762,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5685,9 +5778,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5698,7 +5791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>47</v>
       </c>
@@ -5713,6 +5806,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5724,12 +5822,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5749,7 +5847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5769,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5789,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5809,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5829,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5849,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5869,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5889,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5909,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5929,7 +6027,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5949,7 +6047,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5969,7 +6067,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5989,7 +6087,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6009,7 +6107,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -6029,7 +6127,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6049,7 +6147,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6069,7 +6167,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6096,6 +6194,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6103,13 +6206,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6132,7 +6235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6160,7 +6263,7 @@
         <v>20.401614183110063</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6185,7 +6288,7 @@
         <v>36.451612561075983</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6205,7 +6308,7 @@
         <v>27.650619409660116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6225,7 +6328,7 @@
         <v>15.496153846153845</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6248,7 +6351,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6268,7 +6371,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6288,7 +6391,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6308,7 +6411,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6332,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6352,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6372,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6400,6 +6503,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6411,9 +6519,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6424,7 +6532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>2.0165116279069771E-2</v>
       </c>
@@ -6437,6 +6545,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6448,9 +6561,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6470,7 +6583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6490,7 +6603,7 @@
         <v>3.1660550847457629</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6514,6 +6627,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6523,9 +6641,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6548,7 +6666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6571,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6591,7 +6709,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6611,7 +6729,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6631,7 +6749,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6654,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6674,7 +6792,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6694,7 +6812,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6714,7 +6832,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6737,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6757,7 +6875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6777,7 +6895,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6797,7 +6915,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6820,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6840,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6860,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6880,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6903,7 +7021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6923,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6943,7 +7061,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6965,6 +7083,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6974,9 +7097,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6999,7 +7122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -7022,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -7042,7 +7165,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -7062,7 +7185,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7082,7 +7205,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7105,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7125,7 +7248,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7145,7 +7268,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7165,7 +7288,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7188,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7208,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7228,7 +7351,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7248,7 +7371,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7271,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7291,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7331,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7354,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7374,7 +7497,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7394,7 +7517,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7416,5 +7539,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Mtwara.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Mtwara.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankapetravic/Documents/OPTIMA/Optima nutrition/Tanzania/Input sheets/input v2/regions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="520" windowWidth="23580" windowHeight="13660" tabRatio="500" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="16020" yWindow="6140" windowWidth="23580" windowHeight="13660" tabRatio="500" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -33,13 +38,13 @@
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -929,7 +934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="86">
   <si>
     <t>indicators</t>
   </si>
@@ -1172,6 +1177,21 @@
   </si>
   <si>
     <t>Vitamin A fortification of food</t>
+  </si>
+  <si>
+    <t>IYCF</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food secure with IYCF)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food secure without IYCF)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food insecure with IYCF and supplementation)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food insecure with neither IYCF nor supplementation)</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1291,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,6 +1314,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1370,7 +1396,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1433,6 +1459,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -2917,12 +2945,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +2966,7 @@
         <v>223120.83051140129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2974,7 @@
         <v>49393.276530642324</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2982,7 @@
         <v>58075.946423114336</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2962,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2970,7 +2998,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2982,11 +3010,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2998,12 +3021,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3069,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3089,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3109,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3132,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3152,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3172,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3192,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3215,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3235,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3255,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3275,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3298,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3318,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3338,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3358,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3381,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3401,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3421,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3441,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3464,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3484,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3504,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3524,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3547,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3567,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3587,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3609,11 +3632,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3625,13 +3643,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3667,7 +3685,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +3704,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3705,7 +3723,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3724,7 +3742,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3743,7 +3761,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3762,7 +3780,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3781,7 +3799,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3800,118 +3818,113 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3923,9 +3936,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3939,7 +3952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3955,11 +3968,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3969,12 +3977,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3994,7 +4002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4034,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4054,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4076,11 +4084,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4092,9 +4095,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4136,11 +4139,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4152,9 +4150,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4168,7 +4166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4184,11 +4182,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4200,12 +4193,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4225,7 +4218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4245,7 +4238,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4253,7 +4246,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4261,7 +4254,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4272,28 +4265,23 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
@@ -4313,7 +4301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4333,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4353,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4373,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4393,13 +4381,88 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4408,16 +4471,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4437,7 +4500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -4457,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -4477,21 +4540,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.16</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.16</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.82</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.82</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4501,12 +4571,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +4593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4540,14 +4610,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4556,11 +4626,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4572,13 +4637,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4586,7 +4651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4594,7 +4659,7 @@
         <v>50347.764999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4602,7 +4667,7 @@
         <v>51302.224999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4610,7 +4675,7 @@
         <v>52495.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4618,7 +4683,7 @@
         <v>53449.760000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4626,7 +4691,7 @@
         <v>54404.22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4634,7 +4699,7 @@
         <v>55597.294999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4642,7 +4707,7 @@
         <v>56790.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4650,7 +4715,7 @@
         <v>57744.83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4658,7 +4723,7 @@
         <v>59176.520000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4666,7 +4731,7 @@
         <v>60369.595000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4674,7 +4739,7 @@
         <v>61562.670000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4682,7 +4747,7 @@
         <v>62755.745000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4690,7 +4755,7 @@
         <v>64187.435000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4700,11 +4765,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4713,10 +4773,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4724,7 +4784,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4738,7 +4798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4755,7 +4815,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -4772,7 +4832,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -4789,7 +4849,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4806,7 +4866,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -4820,7 +4880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -4837,7 +4897,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -4854,77 +4914,89 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="37">
+        <v>10.49</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
@@ -4932,11 +5004,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4948,7 +5015,7 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4958,7 +5025,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4983,7 +5050,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5006,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -5029,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -5054,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -5077,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5101,7 +5168,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5124,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -5147,72 +5214,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
@@ -5220,11 +5287,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5236,12 +5298,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5261,7 +5323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5281,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5300,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -5320,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5337,14 +5399,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5354,11 +5416,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5370,12 +5427,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5398,7 +5455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5421,7 +5478,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5441,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -5464,7 +5521,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5488,11 +5545,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5504,12 +5556,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5532,7 +5584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5555,7 +5607,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5575,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -5601,7 +5653,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5625,11 +5677,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5641,12 +5688,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5669,7 +5716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5692,7 +5739,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5712,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -5738,7 +5785,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5762,11 +5809,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5778,9 +5820,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5791,7 +5833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>47</v>
       </c>
@@ -5806,11 +5848,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5822,12 +5859,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5847,7 +5884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5867,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5887,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5907,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5927,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5947,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5967,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5987,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -6007,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -6027,7 +6064,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -6047,7 +6084,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6067,7 +6104,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6087,7 +6124,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6107,7 +6144,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -6127,7 +6164,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6147,7 +6184,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6167,7 +6204,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6194,11 +6231,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6210,9 +6242,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6235,7 +6267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6263,7 +6295,7 @@
         <v>20.401614183110063</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6288,7 +6320,7 @@
         <v>36.451612561075983</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6308,7 +6340,7 @@
         <v>27.650619409660116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6328,7 +6360,7 @@
         <v>15.496153846153845</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6351,7 +6383,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6371,7 +6403,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6391,7 +6423,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6411,7 +6443,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6435,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6455,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6475,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6503,11 +6535,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6519,9 +6546,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6532,7 +6559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30">
         <v>2.0165116279069771E-2</v>
       </c>
@@ -6545,11 +6572,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6561,9 +6583,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6583,7 +6605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6603,7 +6625,7 @@
         <v>3.1660550847457629</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6627,11 +6649,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6641,9 +6658,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6666,7 +6683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6689,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6709,7 +6726,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6729,7 +6746,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6749,7 +6766,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6772,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6792,7 +6809,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6812,7 +6829,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6832,7 +6849,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6855,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6875,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6895,7 +6912,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6915,7 +6932,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6938,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6958,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6978,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6998,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7021,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7041,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7061,7 +7078,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7083,11 +7100,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7097,9 +7109,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -7122,7 +7134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -7145,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -7165,7 +7177,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -7185,7 +7197,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7205,7 +7217,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7228,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7248,7 +7260,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7268,7 +7280,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7288,7 +7300,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7311,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7331,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7351,7 +7363,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7371,7 +7383,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7394,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7414,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7434,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7454,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7477,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7497,7 +7509,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7517,7 +7529,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7539,10 +7551,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>